--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB092.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB092.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD18EBD-334F-47AF-B8D8-93C246A18B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2158E512-79C4-4F05-8D8B-5982C54E5CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Key ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1347,6 +1344,9 @@
   <si>
     <t>單位：平方公尺，填至小數點2位</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1611,10 +1611,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1632,7 +1632,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1640,9 +1640,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1656,16 +1653,13 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1710,7 +1704,7 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1750,9 +1744,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1790,9 +1784,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1825,26 +1819,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1877,26 +1854,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2073,64 +2033,64 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="36.44140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="12" style="8" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.21875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="28" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="56.21875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="49.21875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="26" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="56.21875" style="32" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="20" t="s">
-        <v>73</v>
+    <row r="1" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="E1" s="19"/>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="35"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="41"/>
+      <c r="A3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="39"/>
       <c r="C3" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -2138,13 +2098,13 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="36"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -2152,50 +2112,50 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="36"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="41"/>
+      <c r="A5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="39"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="36"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="41"/>
+      <c r="A6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="39"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="36"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="41"/>
+      <c r="A7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="39"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
@@ -2212,52 +2172,52 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="G8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="9">
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>3</v>
@@ -2266,28 +2226,28 @@
         <v>2</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="29">
+      <c r="G10" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="27">
         <v>1</v>
       </c>
-      <c r="J10" s="30" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="J10" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>3</v>
@@ -2296,28 +2256,28 @@
         <v>3</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="29">
+      <c r="G11" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="27">
         <v>2</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="J11" s="28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>3</v>
@@ -2326,28 +2286,28 @@
         <v>4</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="29">
+      <c r="G12" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="27">
         <v>3</v>
       </c>
-      <c r="J12" s="30" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="J12" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>3</v>
@@ -2356,28 +2316,28 @@
         <v>2</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="29">
+      <c r="G13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="27">
         <v>4</v>
       </c>
-      <c r="J13" s="30" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="J13" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
@@ -2386,28 +2346,28 @@
         <v>50</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="29">
+      <c r="I14" s="27">
         <v>5</v>
       </c>
-      <c r="J14" s="30" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="J14" s="28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>3</v>
@@ -2416,28 +2376,28 @@
         <v>2</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="29">
+      <c r="G15" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="27">
         <v>6</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="J15" s="28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>3</v>
@@ -2446,28 +2406,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="29">
+      <c r="G16" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="27">
         <v>7</v>
       </c>
-      <c r="J16" s="30" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="J16" s="28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>3</v>
@@ -2476,58 +2436,58 @@
         <v>9</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="27">
+        <v>8</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="29">
-        <v>8</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>10</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="C18" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="9">
         <v>5</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="29">
+      <c r="G18" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="27">
         <v>9</v>
       </c>
-      <c r="J18" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="J18" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
@@ -2536,58 +2496,58 @@
         <v>9</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="29">
+      <c r="G19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="27">
         <v>10</v>
       </c>
-      <c r="J19" s="30" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="J19" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="9">
         <v>5</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="27">
+        <v>11</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="29">
-        <v>11</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
-        <v>13</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
@@ -2595,57 +2555,57 @@
       <c r="E21" s="9">
         <v>9</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="27">
+        <v>12</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="29">
-        <v>12</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
-        <v>14</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="C22" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="29">
+      <c r="I22" s="27">
         <v>13</v>
       </c>
-      <c r="J22" s="34" t="s">
-        <v>330</v>
+      <c r="J22" s="32" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>3</v>
@@ -2653,28 +2613,28 @@
       <c r="E23" s="9">
         <v>9</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="27">
+        <v>14</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>16</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="29">
-        <v>14</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
-        <v>16</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="C24" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
@@ -2682,28 +2642,28 @@
       <c r="E24" s="9">
         <v>9</v>
       </c>
-      <c r="G24" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="29">
+      <c r="G24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="27">
         <v>15</v>
       </c>
-      <c r="J24" s="34" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="J24" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
@@ -2712,57 +2672,57 @@
         <v>9</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="29">
+      <c r="G25" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="27">
         <v>16</v>
       </c>
-      <c r="J25" s="30" t="s">
-        <v>333</v>
+      <c r="J25" s="28" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="A26" s="9">
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="D26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9">
         <v>5</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="27">
+        <v>17</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>19</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="29">
-        <v>17</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
-        <v>19</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>3</v>
@@ -2770,57 +2730,57 @@
       <c r="E27" s="9">
         <v>1</v>
       </c>
-      <c r="G27" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="28" t="s">
+      <c r="G27" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="27">
+        <v>18</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>20</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="29">
-        <v>18</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
-        <v>20</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="9">
         <v>2</v>
       </c>
-      <c r="G28" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H28" s="28" t="s">
+      <c r="G28" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="27">
+        <v>19</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>21</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="I28" s="29">
-        <v>19</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
-        <v>21</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
@@ -2828,144 +2788,144 @@
       <c r="E29" s="9">
         <v>4</v>
       </c>
-      <c r="G29" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="29">
+      <c r="G29" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="27">
         <v>20</v>
       </c>
-      <c r="J29" s="34" t="s">
-        <v>337</v>
+      <c r="J29" s="32" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+      <c r="A30" s="9">
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="9">
         <v>4</v>
       </c>
-      <c r="G30" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H30" s="28" t="s">
+      <c r="G30" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="27">
+        <v>21.1</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>23</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="29">
-        <v>21.1</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
-        <v>23</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="D31" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="9">
         <v>4</v>
       </c>
-      <c r="G31" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" s="29">
+      <c r="G31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="27">
         <v>21.2</v>
       </c>
-      <c r="J31" s="34" t="s">
-        <v>339</v>
+      <c r="J31" s="32" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+      <c r="A32" s="9">
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="9">
         <v>5</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="29">
+      <c r="G32" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="27">
         <v>22.1</v>
       </c>
-      <c r="J32" s="34" t="s">
-        <v>340</v>
+      <c r="J32" s="32" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="A33" s="9">
         <v>25</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="9">
         <v>3</v>
       </c>
-      <c r="G33" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="G33" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="27">
         <v>22.2</v>
       </c>
-      <c r="J33" s="34" t="s">
-        <v>341</v>
+      <c r="J33" s="32" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
+      <c r="A34" s="9">
         <v>26</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>3</v>
@@ -2973,25 +2933,25 @@
       <c r="E34" s="9">
         <v>5</v>
       </c>
-      <c r="H34" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="29">
+      <c r="H34" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="27">
         <v>23</v>
       </c>
-      <c r="J34" s="34" t="s">
-        <v>342</v>
+      <c r="J34" s="32" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="69" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+      <c r="A35" s="9">
         <v>27</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>3</v>
@@ -2999,28 +2959,28 @@
       <c r="E35" s="9">
         <v>1</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="29">
+      <c r="G35" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="27">
         <v>24</v>
       </c>
-      <c r="J35" s="34" t="s">
-        <v>348</v>
+      <c r="J35" s="32" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+      <c r="A36" s="9">
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>3</v>
@@ -3028,25 +2988,25 @@
       <c r="E36" s="9">
         <v>9</v>
       </c>
-      <c r="H36" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="29">
+      <c r="H36" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="27">
         <v>25</v>
       </c>
-      <c r="J36" s="34" t="s">
-        <v>349</v>
+      <c r="J36" s="32" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+      <c r="A37" s="9">
         <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>3</v>
@@ -3054,25 +3014,25 @@
       <c r="E37" s="9">
         <v>5</v>
       </c>
-      <c r="H37" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" s="29">
+      <c r="H37" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="27">
         <v>26</v>
       </c>
-      <c r="J37" s="34" t="s">
-        <v>350</v>
+      <c r="J37" s="32" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
+      <c r="A38" s="9">
         <v>30</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>3</v>
@@ -3080,25 +3040,25 @@
       <c r="E38" s="9">
         <v>9</v>
       </c>
-      <c r="H38" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" s="29">
+      <c r="H38" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="27">
         <v>27</v>
       </c>
-      <c r="J38" s="34" t="s">
-        <v>351</v>
+      <c r="J38" s="32" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
+      <c r="A39" s="9">
         <v>31</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>3</v>
@@ -3106,25 +3066,25 @@
       <c r="E39" s="9">
         <v>7</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" s="27">
+        <v>28</v>
+      </c>
+      <c r="J39" s="32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>32</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="I39" s="29">
-        <v>28</v>
-      </c>
-      <c r="J39" s="34" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="69" x14ac:dyDescent="0.3">
-      <c r="A40" s="19">
-        <v>32</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>3</v>
@@ -3132,25 +3092,25 @@
       <c r="E40" s="9">
         <v>1</v>
       </c>
-      <c r="H40" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="29">
+      <c r="H40" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="27">
         <v>29</v>
       </c>
-      <c r="J40" s="34" t="s">
-        <v>355</v>
+      <c r="J40" s="32" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="69" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+      <c r="A41" s="9">
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>3</v>
@@ -3158,28 +3118,28 @@
       <c r="E41" s="9">
         <v>9</v>
       </c>
-      <c r="G41" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="I41" s="29">
+      <c r="G41" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" s="27">
         <v>30</v>
       </c>
-      <c r="J41" s="34" t="s">
-        <v>356</v>
+      <c r="J41" s="32" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="19">
+      <c r="A42" s="9">
         <v>34</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>3</v>
@@ -3187,28 +3147,28 @@
       <c r="E42" s="9">
         <v>10</v>
       </c>
-      <c r="G42" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I42" s="29">
+      <c r="G42" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="27">
         <v>31</v>
       </c>
-      <c r="J42" s="34" t="s">
-        <v>357</v>
+      <c r="J42" s="32" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
+      <c r="A43" s="9">
         <v>35</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>3</v>
@@ -3216,25 +3176,25 @@
       <c r="E43" s="9">
         <v>2</v>
       </c>
-      <c r="H43" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="29">
+      <c r="H43" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="27">
         <v>32</v>
       </c>
-      <c r="J43" s="34" t="s">
-        <v>354</v>
+      <c r="J43" s="32" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="19">
+      <c r="A44" s="9">
         <v>36</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>3</v>
@@ -3242,124 +3202,120 @@
       <c r="E44" s="9">
         <v>29</v>
       </c>
-      <c r="G44" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I44" s="29">
+      <c r="G44" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="27">
         <v>33</v>
       </c>
-      <c r="J44" s="34" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+      <c r="J44" s="32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
         <v>37</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="D45" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="9">
         <v>5</v>
       </c>
       <c r="F45" s="9"/>
-      <c r="G45" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="29">
+      <c r="G45" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="27">
         <v>34</v>
       </c>
-      <c r="J45" s="30" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19">
+      <c r="J45" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
         <v>38</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+    </row>
+    <row r="47" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>39</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="9">
-        <v>8</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="30"/>
-    </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19">
-        <v>39</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="D47" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E47" s="9">
         <v>6</v>
       </c>
       <c r="F47" s="9"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="30"/>
-    </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19">
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
+    </row>
+    <row r="48" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
         <v>40</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="D48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="9">
-        <v>8</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="30"/>
-    </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19">
+      <c r="G48" s="25"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
+    </row>
+    <row r="49" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
         <v>41</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>3</v>
@@ -3368,79 +3324,79 @@
         <v>6</v>
       </c>
       <c r="F49" s="9"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="30"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
+      <c r="A50" s="9"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="15"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="15"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="15"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="15"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="15"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="15"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="15"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="15"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="15"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="15"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
+      <c r="A61" s="15"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="15"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
+      <c r="A63" s="15"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
+      <c r="A64" s="15"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
+      <c r="A65" s="15"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
+      <c r="A66" s="15"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
+      <c r="A67" s="15"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
+      <c r="A68" s="15"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
+      <c r="A69" s="15"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
+      <c r="A70" s="15"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
+      <c r="A71" s="15"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16"/>
+      <c r="A72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3456,7 +3412,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:XFD2 A51:XFD1048576 A1:B1 E1:XFD1 A9 D9 F9 K8:XFD8 B46:XFD46 A4:XFD6 A3:B3 D3:XFD3 H9:I9 A8:I8 B48:XFD49 B47:F47 H47:XFD47 B50:XFD50 A7:B7 D7:XFD7 K9:XFD9" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:XFD2 A51:XFD1048576 A1:B1 E1:XFD1 A9 D9 F9 K8:XFD8 B46:C46 A4:XFD6 A3:B3 D3:XFD3 H9:I9 A8:I8 B49:XFD49 B47:F47 H47:XFD47 B50:XFD50 A7:B7 D7:XFD7 K9:XFD9 F46:XFD46 B48:C48 F48:XFD48" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3506,32 +3462,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.33203125" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="33.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.33203125" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>76</v>
+      <c r="C2" s="23" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3550,898 +3506,898 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="33" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="136.109375" style="31" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="31" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="33" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="31" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="33" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="33" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="33" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="33" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="33" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="33" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="33" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="33" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="31" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="31" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="33" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="31" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="33" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="31" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="33" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="31" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="33" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="33" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="31" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="33" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="33" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="33" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="33" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="33" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="33" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="33" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="33" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="33" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="31" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="33" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="33" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="33" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="33" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="33" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="33" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="33" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="33" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4460,52 +4416,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="33" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="136.109375" style="31" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>296</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>280</v>
+      <c r="A5" s="29" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="29"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="29"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="29"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="29"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="29"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4523,186 +4479,186 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="33" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="136.109375" style="31" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
-        <v>320</v>
-      </c>
-    </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
-        <v>302</v>
+      <c r="A39" s="31" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
